--- a/data/AV_mex_count_naive.xlsx
+++ b/data/AV_mex_count_naive.xlsx
@@ -423,10 +423,10 @@
         <v>3</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>7</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -445,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -456,10 +456,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -467,10 +467,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -481,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -489,10 +489,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
